--- a/example_data/SOIL_LIB.xlsx
+++ b/example_data/SOIL_LIB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xHM\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB3F5F8-3151-4913-ADA1-575A431ABA2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B76C9-E18A-4737-9B73-6C477C9CAD03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22755" windowHeight="5700" xr2:uid="{6982937E-D96A-42A5-9BE5-C5D8CBCA0A5D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Code</t>
   </si>
@@ -73,13 +73,7 @@
     <t>silty clay</t>
   </si>
   <si>
-    <t>the local power law exponent</t>
-  </si>
-  <si>
     <t>clay</t>
-  </si>
-  <si>
-    <t>the moisture content above which soil conditions do not restrict transpiration.</t>
   </si>
   <si>
     <t>silty clay loam</t>
@@ -509,7 +503,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,16 +636,14 @@
       <c r="M3" s="1">
         <v>32.4</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>29.9</v>
@@ -686,16 +678,14 @@
       <c r="M4" s="1">
         <v>46.8</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>21</v>
@@ -737,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>21.3</v>
@@ -779,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>6.3</v>
@@ -821,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>13.7</v>
@@ -863,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>26</v>
@@ -905,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>12.6</v>
@@ -947,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>18.3</v>
@@ -989,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>8.1</v>
@@ -1031,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>5.7</v>
@@ -1073,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1130,37 +1120,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
